--- a/SPK MOORA.xlsx
+++ b/SPK MOORA.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/khairulazman/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/SPK_Karyawan2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA17670-91D4-BD45-9109-389ACC2D5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B7328-0FC3-C64D-8A65-6936AFC19B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="1940" windowWidth="12040" windowHeight="16060" xr2:uid="{32E11A5F-1C21-B54D-BA61-05BC13F4111B}"/>
+    <workbookView xWindow="18200" yWindow="500" windowWidth="12040" windowHeight="16060" xr2:uid="{32E11A5F-1C21-B54D-BA61-05BC13F4111B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,9 +418,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,18 +425,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,9 +450,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,6 +500,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE62219-48D1-A44B-87DE-1E5A0148E42F}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -848,812 +848,812 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>70</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>80</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>40</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="8">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="8">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
         <v>60</v>
       </c>
-      <c r="G6" s="14">
+      <c r="E7" s="8">
+        <v>40</v>
+      </c>
+      <c r="F7" s="8">
+        <v>60</v>
+      </c>
+      <c r="G7" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="G8" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>100</v>
+      </c>
+      <c r="D9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="F9" s="8">
+        <v>40</v>
+      </c>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
+        <v>100</v>
+      </c>
+      <c r="D10" s="11">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11">
         <v>20</v>
       </c>
-      <c r="D7" s="13">
+      <c r="G10" s="12">
         <v>60</v>
-      </c>
-      <c r="E7" s="13">
-        <v>40</v>
-      </c>
-      <c r="F7" s="13">
-        <v>80</v>
-      </c>
-      <c r="G7" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13">
-        <v>100</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
-        <v>100</v>
-      </c>
-      <c r="F8" s="13">
-        <v>60</v>
-      </c>
-      <c r="G8" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13">
-        <v>100</v>
-      </c>
-      <c r="D9" s="13">
-        <v>100</v>
-      </c>
-      <c r="E9" s="13">
-        <v>100</v>
-      </c>
-      <c r="F9" s="13">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="16">
-        <v>100</v>
-      </c>
-      <c r="D10" s="16">
-        <v>80</v>
-      </c>
-      <c r="E10" s="16">
-        <v>60</v>
-      </c>
-      <c r="F10" s="16">
-        <v>60</v>
-      </c>
-      <c r="G10" s="17">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <f>C6/100</f>
         <v>0.7</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <f t="shared" ref="D15:G15" si="0">D6/100</f>
         <v>0.8</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <f t="shared" ref="C16:G19" si="1">C7/100</f>
         <v>0.2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="8">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="D18" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="D17" s="13">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="G19" s="12">
         <f t="shared" si="1"/>
         <v>0.6</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D18" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="G19" s="17">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="18">
         <f>SQRT((C15^2)+(C16^2)+(C17^2)+(C18^2)+(C19^2))</f>
         <v>1.6031219541881396</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="18">
         <f t="shared" ref="D21:G21" si="2">SQRT((D15^2)+(D16^2)+(D17^2)+(D18^2)+(D19^2))</f>
         <v>1.6278820596099706</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="18">
         <f t="shared" si="2"/>
         <v>1.6370705543744901</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="18">
         <f t="shared" si="2"/>
-        <v>1.3711309200802089</v>
-      </c>
-      <c r="G21" s="25">
+        <v>1.4832396974191326</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="2"/>
-        <v>1.61245154965971</v>
+        <v>1.7320508075688772</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f>C15/C$21</f>
         <v>0.43664800308626373</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" ref="D25:G25" si="3">D15/D$21</f>
         <v>0.49143609346716099</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f t="shared" si="3"/>
         <v>0.24433888871261045</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>0.43759497449368362</v>
-      </c>
-      <c r="G25" s="2">
+        <v>0.67419986246324204</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="3"/>
-        <v>0.49613893835683381</v>
+        <v>0.46188021535170065</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f>C16/C$21</f>
         <v>0.12475657231036108</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="C26:G26" si="4">D16/D$21</f>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26:G26" si="4">D16/D$21</f>
         <v>0.36857707010037072</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <f t="shared" si="4"/>
         <v>0.24433888871261045</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f t="shared" si="4"/>
-        <v>0.58345996599157823</v>
-      </c>
-      <c r="G26" s="2">
+        <v>0.40451991747794525</v>
+      </c>
+      <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>0.6201736729460422</v>
+        <v>0.57735026918962584</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <f>C17/C$21</f>
         <v>0.12475657231036108</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="C27:G27" si="5">D17/D$21</f>
+      <c r="D27" s="1">
+        <f t="shared" ref="D27:G27" si="5">D17/D$21</f>
         <v>6.1429511683395124E-2</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f t="shared" si="5"/>
         <v>0.61084722178152606</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f t="shared" si="5"/>
-        <v>0.43759497449368362</v>
-      </c>
-      <c r="G27" s="2">
+        <v>0.5393598899705937</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="5"/>
-        <v>0.24806946917841691</v>
+        <v>0.34641016151377546</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f>C18/C$21</f>
         <v>0.6237828615518054</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="C28:G28" si="6">D18/D$21</f>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:G28" si="6">D18/D$21</f>
         <v>0.61429511683395122</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <f t="shared" si="6"/>
         <v>0.61084722178152606</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f t="shared" si="6"/>
-        <v>0.29172998299578912</v>
-      </c>
-      <c r="G28" s="2">
+        <v>0.26967994498529685</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="6"/>
-        <v>0.49613893835683381</v>
+        <v>0.46188021535170065</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <f>C19/C$21</f>
         <v>0.6237828615518054</v>
       </c>
-      <c r="D29" s="2">
-        <f t="shared" ref="C29:G29" si="7">D19/D$21</f>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:F29" si="7">D19/D$21</f>
         <v>0.49143609346716099</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <f t="shared" si="7"/>
         <v>0.36650833306891561</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f t="shared" si="7"/>
-        <v>0.43759497449368362</v>
-      </c>
-      <c r="G29" s="2">
+        <v>0.13483997249264842</v>
+      </c>
+      <c r="G29" s="1">
         <f>G19/G$21</f>
-        <v>0.24806946917841691</v>
+        <v>0.34641016151377546</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="26">
         <v>0.2</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="26">
         <v>0.15</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="26">
         <v>0.3</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="26">
         <v>0.15</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="26">
         <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f>C25*C$32</f>
         <v>8.7329600617252756E-2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" ref="D35:G35" si="8">D25*D$32</f>
         <v>7.3715414020074144E-2</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="8"/>
         <v>7.3301666613783137E-2</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="8"/>
-        <v>6.5639246174052535E-2</v>
-      </c>
-      <c r="G35" s="3">
+        <v>0.1011299793694863</v>
+      </c>
+      <c r="G35" s="2">
         <f t="shared" si="8"/>
-        <v>9.9227787671366766E-2</v>
+        <v>9.2376043070340141E-2</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f>C26*C$32</f>
         <v>2.4951314462072216E-2</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" ref="C36:G36" si="9">D26*D$32</f>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36:G36" si="9">D26*D$32</f>
         <v>5.5286560515055608E-2</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <f t="shared" si="9"/>
         <v>7.3301666613783137E-2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <f t="shared" si="9"/>
-        <v>8.7518994898736727E-2</v>
-      </c>
-      <c r="G36" s="3">
+        <v>6.0677987621691784E-2</v>
+      </c>
+      <c r="G36" s="2">
         <f t="shared" si="9"/>
-        <v>0.12403473458920844</v>
+        <v>0.11547005383792518</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f t="shared" ref="C37:G37" si="10">C27*C$32</f>
         <v>2.4951314462072216E-2</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f t="shared" si="10"/>
         <v>9.214426752509268E-3</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="10"/>
         <v>0.18325416653445781</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="10"/>
-        <v>6.5639246174052535E-2</v>
-      </c>
-      <c r="G37" s="3">
+        <v>8.0903983495589055E-2</v>
+      </c>
+      <c r="G37" s="2">
         <f t="shared" si="10"/>
-        <v>4.9613893835683383E-2</v>
+        <v>6.9282032302755092E-2</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <f>C28*C$32</f>
         <v>0.12475657231036108</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" ref="C38:G38" si="11">D28*D$32</f>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38:G38" si="11">D28*D$32</f>
         <v>9.214426752509268E-2</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <f t="shared" si="11"/>
         <v>0.18325416653445781</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="1">
         <f t="shared" si="11"/>
-        <v>4.3759497449368363E-2</v>
-      </c>
-      <c r="G38" s="3">
+        <v>4.0451991747794527E-2</v>
+      </c>
+      <c r="G38" s="2">
         <f t="shared" si="11"/>
-        <v>9.9227787671366766E-2</v>
+        <v>9.2376043070340141E-2</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" ref="C39:G39" si="12">C29*C$32</f>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39" si="12">C29*C$32</f>
         <v>0.12475657231036108</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f>D29*D$32</f>
         <v>7.3715414020074144E-2</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <f>E29*E$32</f>
         <v>0.10995249992067468</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <f>F29*F$32</f>
-        <v>6.5639246174052535E-2</v>
-      </c>
-      <c r="G39" s="3">
+        <v>2.0225995873897264E-2</v>
+      </c>
+      <c r="G39" s="2">
         <f>G29*G$32</f>
-        <v>4.9613893835683383E-2</v>
+        <v>6.9282032302755092E-2</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="2:7" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="8">
         <f>C35+E35+G35</f>
-        <v>0.25985905490240263</v>
-      </c>
-      <c r="D43" s="13">
+        <v>0.25300731030137602</v>
+      </c>
+      <c r="D43" s="8">
         <f>D35+F35</f>
-        <v>0.13935466019412668</v>
-      </c>
-      <c r="E43" s="13">
+        <v>0.17484539338956046</v>
+      </c>
+      <c r="E43" s="8">
         <f>C43-D43</f>
-        <v>0.12050439470827595</v>
-      </c>
-      <c r="F43" s="14">
+        <v>7.8161916911815565E-2</v>
+      </c>
+      <c r="F43" s="9">
         <f>RANK(E43,$E$43:$E$47,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="8">
+        <f>C36+E36+G36</f>
+        <v>0.21372303491378053</v>
+      </c>
+      <c r="D44" s="8">
+        <f t="shared" ref="D44:D47" si="13">D36+F36</f>
+        <v>0.11596454813674739</v>
+      </c>
+      <c r="E44" s="8">
+        <f t="shared" ref="E44:E47" si="14">C44-D44</f>
+        <v>9.7758486777033138E-2</v>
+      </c>
+      <c r="F44" s="9">
+        <f>RANK(E44,$E$43:$E$47,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="13">
-        <f>C36+E36+G36</f>
-        <v>0.22228771566506378</v>
-      </c>
-      <c r="D44" s="13">
-        <f t="shared" ref="D44:D47" si="13">D36+F36</f>
-        <v>0.14280555541379233</v>
-      </c>
-      <c r="E44" s="13">
-        <f t="shared" ref="E44:E47" si="14">C44-D44</f>
-        <v>7.9482160251271444E-2</v>
-      </c>
-      <c r="F44" s="14">
-        <f>RANK(E44,$E$43:$E$47,0)</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="45" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="8">
         <f>C37+E37+G37</f>
-        <v>0.2578193748322134</v>
-      </c>
-      <c r="D45" s="13">
+        <v>0.27748751329928512</v>
+      </c>
+      <c r="D45" s="8">
         <f t="shared" si="13"/>
-        <v>7.4853672926561809E-2</v>
-      </c>
-      <c r="E45" s="13">
+        <v>9.011841024809833E-2</v>
+      </c>
+      <c r="E45" s="8">
         <f t="shared" si="14"/>
-        <v>0.18296570190565159</v>
-      </c>
-      <c r="F45" s="14">
+        <v>0.18736910305118679</v>
+      </c>
+      <c r="F45" s="9">
         <f>RANK(E45,$E$43:$E$47,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="8">
         <f>C38+E38+G38</f>
-        <v>0.40723852651618564</v>
-      </c>
-      <c r="D46" s="13">
+        <v>0.40038678191515903</v>
+      </c>
+      <c r="D46" s="8">
         <f t="shared" si="13"/>
-        <v>0.13590376497446105</v>
-      </c>
-      <c r="E46" s="13">
+        <v>0.13259625927288721</v>
+      </c>
+      <c r="E46" s="8">
         <f t="shared" si="14"/>
-        <v>0.27133476154172459</v>
-      </c>
-      <c r="F46" s="14">
+        <v>0.26779052264227182</v>
+      </c>
+      <c r="F46" s="9">
         <f>RANK(E46,$E$43:$E$47,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="11">
         <f>C39+E39+G39</f>
-        <v>0.28432296606671914</v>
-      </c>
-      <c r="D47" s="16">
+        <v>0.30399110453379086</v>
+      </c>
+      <c r="D47" s="11">
         <f t="shared" si="13"/>
-        <v>0.13935466019412668</v>
-      </c>
-      <c r="E47" s="16">
+        <v>9.39414098939714E-2</v>
+      </c>
+      <c r="E47" s="11">
         <f t="shared" si="14"/>
-        <v>0.14496830587259246</v>
-      </c>
-      <c r="F47" s="17">
+        <v>0.21004969463981946</v>
+      </c>
+      <c r="F47" s="12">
         <f>RANK(E47,$E$43:$E$47,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
